--- a/Document/后端测试文档.xlsx
+++ b/Document/后端测试文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lestd\OneDrive\processing\OptAdvisor\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAFC2CA4-36B6-4A40-BC67-84A126C63E0A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CE56012B-BAC4-44B2-8AD9-E00C6BC2BD3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{05777005-2989-42FA-B7D3-9EC102598F71}"/>
   </bookViews>
@@ -628,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,9 +641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +648,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,9 +972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C0D0B-CDD2-43BA-B485-A3CD137BBF0A}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,37 +999,37 @@
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1034,7 +1037,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1043,619 +1046,619 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1004</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5">
+      <c r="I3" s="5"/>
+      <c r="J3" s="4">
         <v>1004</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="b">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1001</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5">
+      <c r="I6" s="5"/>
+      <c r="J6" s="4">
         <v>1001</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>1002</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5">
+      <c r="I7" s="5"/>
+      <c r="J7" s="4">
         <v>1002</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1008</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5">
+      <c r="I9" s="5"/>
+      <c r="J9" s="4">
         <v>1008</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>1002</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5">
+      <c r="I14" s="5"/>
+      <c r="J14" s="4">
         <v>1002</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6" t="s">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6" t="s">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="5"/>
+      <c r="J22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1667,30 +1670,30 @@
       <c r="C23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6" t="s">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1698,32 +1701,32 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1735,28 +1738,28 @@
         <v>102</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
@@ -1764,24 +1767,24 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="5" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1793,24 +1796,24 @@
         <v>108</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6" t="s">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1820,24 +1823,24 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="5" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1845,28 +1848,28 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="5">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6" t="s">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1874,92 +1877,92 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6" t="s">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="4"/>
+      <c r="K32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2040,11 +2043,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="C2:C15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
@@ -2057,6 +2055,11 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="C2:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
